--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pomc-Mc4r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pomc-Mc4r.xlsx
@@ -79,13 +79,13 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Pomc</t>
   </si>
   <si>
     <t>Mc4r</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -516,93 +516,93 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9347220000000002</v>
+        <v>0.5131323333333334</v>
       </c>
       <c r="H2">
-        <v>2.804166</v>
+        <v>1.539397</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9119558630037493</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9119558630037494</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.006923666666666667</v>
+        <v>0.309635</v>
       </c>
       <c r="N2">
-        <v>0.020771</v>
+        <v>0.928905</v>
       </c>
       <c r="O2">
-        <v>0.02599087797889047</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.02599087797889047</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.006471703554000002</v>
+        <v>0.1588837300316667</v>
       </c>
       <c r="R2">
-        <v>0.05824533198600001</v>
+        <v>1.429953570285</v>
       </c>
       <c r="S2">
-        <v>0.02599087797889047</v>
+        <v>0.9119558630037493</v>
       </c>
       <c r="T2">
-        <v>0.02599087797889047</v>
+        <v>0.9119558630037494</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9347220000000002</v>
+        <v>0.04954</v>
       </c>
       <c r="H3">
-        <v>2.804166</v>
+        <v>0.14862</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.08804413699625062</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.08804413699625063</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -611,28 +611,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2594646666666667</v>
+        <v>0.309635</v>
       </c>
       <c r="N3">
-        <v>0.778394</v>
+        <v>0.928905</v>
       </c>
       <c r="O3">
-        <v>0.9740091220211096</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.9740091220211096</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.2425273321560001</v>
+        <v>0.0153393179</v>
       </c>
       <c r="R3">
-        <v>2.182745989404</v>
+        <v>0.1380538611</v>
       </c>
       <c r="S3">
-        <v>0.9740091220211096</v>
+        <v>0.08804413699625062</v>
       </c>
       <c r="T3">
-        <v>0.9740091220211096</v>
+        <v>0.08804413699625063</v>
       </c>
     </row>
   </sheetData>
